--- a/master/upload/Book1.xlsx
+++ b/master/upload/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOND\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NBP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE46ABD4-F1B9-4EB5-A286-919F7819C77F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4E33F4-4B23-485B-92BA-3DD26B057DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{24807DB4-BC59-4F6C-925A-9EB7EE5D6D52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C78AA014-E128-42AD-82B4-DA8FCE6B3C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>card payment</t>
+    <t>Finance</t>
   </si>
   <si>
-    <t>cash payment</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment </t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -387,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C13A5-AE0E-4394-825A-A4150D6A08E0}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4022539-3E88-428D-84C7-DC0CEA577F75}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +415,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
